--- a/else/Test/output/excel/物编/物编.xlsx
+++ b/else/Test/output/excel/物编/物编.xlsx
@@ -1555,12 +1555,12 @@
       </c>
       <c r="D1" s="5" t="inlineStr">
         <is>
-          <t>编辑器后缀</t>
+          <t>名字-编辑器后缀</t>
         </is>
       </c>
       <c r="E1" s="5" t="inlineStr">
         <is>
-          <t>提示工具</t>
+          <t>提示工具-基础</t>
         </is>
       </c>
       <c r="F1" s="5" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="K1" s="5" t="inlineStr">
         <is>
-          <t>技能</t>
+          <t>普通技能</t>
         </is>
       </c>
       <c r="L1" s="5" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="M1" s="5" t="inlineStr">
         <is>
-          <t>英雄</t>
+          <t>英雄技能</t>
         </is>
       </c>
       <c r="N1" s="5" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="T1" s="5" t="inlineStr">
         <is>
-          <t>模型缩放</t>
+          <t>选择缩放</t>
         </is>
       </c>
       <c r="U1" s="5" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="AD1" s="5" t="inlineStr">
         <is>
-          <t>图标</t>
+          <t>图标-游戏界面</t>
         </is>
       </c>
       <c r="AE1" s="5" t="inlineStr">
@@ -1800,17 +1800,17 @@
       </c>
       <c r="BA1" s="5" t="inlineStr">
         <is>
-          <t>加强闭塞范围</t>
+          <t>不可见区域显示单位</t>
         </is>
       </c>
       <c r="BB1" s="5" t="inlineStr">
         <is>
-          <t>X轴最大旋转角度(度数)</t>
+          <t>X轴最大旋转角度(弧度)</t>
         </is>
       </c>
       <c r="BC1" s="5" t="inlineStr">
         <is>
-          <t>Y轴最大旋转角度(度数)</t>
+          <t>Y轴最大旋转角度(弧度)</t>
         </is>
       </c>
       <c r="BD1" s="5" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="FI1" s="5" t="inlineStr">
         <is>
-          <t>修理金子消耗</t>
+          <t>修理黄金消耗</t>
         </is>
       </c>
       <c r="FJ1" s="5" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="FN1" s="5" t="inlineStr">
         <is>
-          <t>生命值</t>
+          <t>生命最大值</t>
         </is>
       </c>
       <c r="FO1" s="5" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="GE1" s="5" t="inlineStr">
         <is>
-          <t>购买时间间隔</t>
+          <t>雇佣时间间隔</t>
         </is>
       </c>
       <c r="GF1" s="5" t="inlineStr">
         <is>
-          <t>优先权</t>
+          <t>编队优先权</t>
         </is>
       </c>
       <c r="GG1" s="5" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="GQ1" s="5" t="inlineStr">
         <is>
-          <t>购买开始时间</t>
+          <t>雇佣开始时间</t>
         </is>
       </c>
       <c r="GR1" s="5" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="IB1" s="5" t="inlineStr">
         <is>
-          <t>说明</t>
+          <t>Description</t>
         </is>
       </c>
     </row>
@@ -25398,7 +25398,7 @@
       </c>
       <c r="E1" s="5" t="inlineStr">
         <is>
-          <t>提示工具</t>
+          <t>提示工具-基础</t>
         </is>
       </c>
       <c r="F1" s="5" t="inlineStr">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="G1" s="5" t="inlineStr">
         <is>
-          <t>图标</t>
+          <t>界面图标</t>
         </is>
       </c>
       <c r="H1" s="5" t="inlineStr">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="Q1" s="5" t="inlineStr">
         <is>
-          <t>升级类型</t>
+          <t>物品分类</t>
         </is>
       </c>
       <c r="R1" s="5" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="AA1" s="5" t="inlineStr">
         <is>
-          <t>模型文件</t>
+          <t>使用模型</t>
         </is>
       </c>
       <c r="AB1" s="5" t="inlineStr">
@@ -25538,7 +25538,7 @@
       </c>
       <c r="AG1" s="5" t="inlineStr">
         <is>
-          <t>选择圈大小</t>
+          <t>选择圈大小(编辑器)</t>
         </is>
       </c>
       <c r="AH1" s="5" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="AL1" s="5" t="inlineStr">
         <is>
-          <t>热键</t>
+          <t>Hotkey</t>
         </is>
       </c>
     </row>
@@ -26193,7 +26193,7 @@
       </c>
       <c r="E1" s="5" t="inlineStr">
         <is>
-          <t>提示工具</t>
+          <t>提示工具-普通</t>
         </is>
       </c>
       <c r="F1" s="5" t="inlineStr">
@@ -26203,7 +26203,7 @@
       </c>
       <c r="G1" s="5" t="inlineStr">
         <is>
-          <t>提示工具-扩展</t>
+          <t>提示工具-普通-扩展</t>
         </is>
       </c>
       <c r="H1" s="5" t="inlineStr">
@@ -26223,12 +26223,12 @@
       </c>
       <c r="K1" s="5" t="inlineStr">
         <is>
-          <t>按钮位置(X)</t>
+          <t>按钮位置-普通(X)</t>
         </is>
       </c>
       <c r="L1" s="5" t="inlineStr">
         <is>
-          <t>按钮位置(Y)</t>
+          <t>按钮位置-普通(Y)</t>
         </is>
       </c>
       <c r="M1" s="5" t="inlineStr">
@@ -26253,7 +26253,7 @@
       </c>
       <c r="Q1" s="5" t="inlineStr">
         <is>
-          <t>图标</t>
+          <t>图标-普通</t>
         </is>
       </c>
       <c r="R1" s="5" t="inlineStr">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="W1" s="5" t="inlineStr">
         <is>
-          <t>效果-点目标</t>
+          <t>效果-目标点</t>
         </is>
       </c>
       <c r="X1" s="5" t="inlineStr">
@@ -26313,12 +26313,12 @@
       </c>
       <c r="AC1" s="5" t="inlineStr">
         <is>
-          <t>设置箭矢是否跟踪目标</t>
+          <t>设置箭矢是否自动跟踪目标</t>
         </is>
       </c>
       <c r="AD1" s="5" t="inlineStr">
         <is>
-          <t>热键</t>
+          <t>热键-普通</t>
         </is>
       </c>
       <c r="AE1" s="5" t="inlineStr">
@@ -26443,12 +26443,12 @@
       </c>
       <c r="BC1" s="5" t="inlineStr">
         <is>
-          <t>声音效果</t>
+          <t>音效</t>
         </is>
       </c>
       <c r="BD1" s="5" t="inlineStr">
         <is>
-          <t>声音效果(循环)</t>
+          <t>音效(循环)</t>
         </is>
       </c>
       <c r="BE1" s="5" t="inlineStr">
